--- a/src/static/report_week.xlsx
+++ b/src/static/report_week.xlsx
@@ -258,6 +258,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,6 +437,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +724,7 @@
   <dimension ref="B2:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,11 +736,15 @@
     <col min="5" max="5" width="21.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="10.28515625" style="3" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="10.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1073,35 +1083,35 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="H20" s="15">
         <f>SUM(H6:H19)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="15">
         <f>SUM(I6:I19)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="15">
         <f>SUM(J6:J19)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="15">
         <f>SUM(K6:K19)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="15">
         <f>SUM(L6:L19)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="15">
         <f>L20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="15">
         <f>SUM(N6:N19)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="15">
         <f>SUM(O6:O19)</f>
         <v>0</v>
       </c>

--- a/src/static/report_week.xlsx
+++ b/src/static/report_week.xlsx
@@ -259,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -354,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -377,24 +377,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -417,7 +404,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,7 +425,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,14 +726,14 @@
     <col min="5" max="5" width="21.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="16" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -837,281 +827,284 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="15">
-        <f>SUM(H6:H19)</f>
+      <c r="G20" s="8">
+        <f t="shared" ref="G20:L20" si="0">SUM(G6:G19)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="15">
-        <f>SUM(I6:I19)</f>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="15">
-        <f>SUM(J6:J19)</f>
+      <c r="I20" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="15">
-        <f>SUM(K6:K19)</f>
+      <c r="J20" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="15">
-        <f>SUM(L6:L19)</f>
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="15">
+      <c r="L20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
         <f>L20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="8">
         <f>SUM(N6:N19)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="8">
         <f>SUM(O6:O19)</f>
         <v>0</v>
       </c>
